--- a/medicine/Enfance/Salon_du_livre_et_de_la_presse_jeunesse/Salon_du_livre_et_de_la_presse_jeunesse.xlsx
+++ b/medicine/Enfance/Salon_du_livre_et_de_la_presse_jeunesse/Salon_du_livre_et_de_la_presse_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Salon du livre et de la presse jeunesse en Seine-Saint-Denis à Montreuil en Seine-Saint-Denis est, chaque année, à la fin du mois de novembre, le moment fort de l’activité du Centre de promotion du livre de Jeunesse-Seine-Saint-Denis, une association loi de 1901, financée par le conseil départemental de la Seine-Saint-Denis et présidée par Émile Bravo.
-Il est organisé pour la première fois en 1984[1].
-Ce salon fait partie de la Fédération des Salons et Fêtes du livre de jeunesse, créée en 2000 pour fédérer les différents événements autour du livre de jeunesse en France[2].
+Il est organisé pour la première fois en 1984.
+Ce salon fait partie de la Fédération des Salons et Fêtes du livre de jeunesse, créée en 2000 pour fédérer les différents événements autour du livre de jeunesse en France.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le salon du livre jeunesse est créé à Montreuil (Seine-Saint-Denis) en 1984, par la ville de Montreuil et le conseil général de la Seine-Saint-Denis. En 1985, le salon accueillait une cinquantaine d’éditeurs pour sa première édition. En 1997, il s’est ouvert à l’Europe et aux créateurs internationaux. Au départ sous la direction d'Henriette Zoughebi[3], elle passe la main en 2001 à Sylvie Vassallo[4]. Le salon a ensuite lancé en 2010 le Marché international et interprofessionnel de la création pour enfants. Aujourd’hui, le Salon de livre et de la presse jeunesse accueille 450 éditeurs avec plus de 150 auteurs invités. Il est organisé par le Centre de promotion du livre de jeunesse de Seine-Saint-Denis avec le soutien du programme Culture de la commission européenne et des ministères chargés de la Culture et de l’Education nationale. Il est labellisé "Festival européen" par la commission européenne. En 30 ans, le salon est devenu la référence nationale et le premier du genre en Europe.
-Le salon du livre de Montreuil a connu une très nette évolution, puisqu'en 1985[5], seulement une cinquantaine d'éditeurs avaient pris part à la première édition. En 2023, 420 exposants ont participé à la trente-neuvième édition du salon[6]. Une évolution significative de la grandeur de l'événement et de ses conséquences plus que positives pour la littérature jeunesse et le young-adult, placés en deuxième position derrière la littérature générale en 2014.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le salon du livre jeunesse est créé à Montreuil (Seine-Saint-Denis) en 1984, par la ville de Montreuil et le conseil général de la Seine-Saint-Denis. En 1985, le salon accueillait une cinquantaine d’éditeurs pour sa première édition. En 1997, il s’est ouvert à l’Europe et aux créateurs internationaux. Au départ sous la direction d'Henriette Zoughebi, elle passe la main en 2001 à Sylvie Vassallo. Le salon a ensuite lancé en 2010 le Marché international et interprofessionnel de la création pour enfants. Aujourd’hui, le Salon de livre et de la presse jeunesse accueille 450 éditeurs avec plus de 150 auteurs invités. Il est organisé par le Centre de promotion du livre de jeunesse de Seine-Saint-Denis avec le soutien du programme Culture de la commission européenne et des ministères chargés de la Culture et de l’Education nationale. Il est labellisé "Festival européen" par la commission européenne. En 30 ans, le salon est devenu la référence nationale et le premier du genre en Europe.
+Le salon du livre de Montreuil a connu une très nette évolution, puisqu'en 1985, seulement une cinquantaine d'éditeurs avaient pris part à la première édition. En 2023, 420 exposants ont participé à la trente-neuvième édition du salon. Une évolution significative de la grandeur de l'événement et de ses conséquences plus que positives pour la littérature jeunesse et le young-adult, placés en deuxième position derrière la littérature générale en 2014.
 </t>
         </is>
       </c>
@@ -546,20 +560,91 @@
           <t>Prix décernés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Différents prix littéraires sont décernés chaque année[7] :
-Jusqu'en 2010
-Baobab de l'album
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différents prix littéraires sont décernés chaque année :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Salon_du_livre_et_de_la_presse_jeunesse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salon_du_livre_et_de_la_presse_jeunesse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Prix décernés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jusqu'en 2010</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Baobab de l'album
 Tam-tam roman 8 ans et plus
 Tam-Tam roman 11 ans et plus
 Tam-Tam album bande dessinée
 Tam-Tam album manga
 Prix de la presse des jeunes :
 Catégorie Enfants
-Catégorie Junior
-De 2011 à 2015
-De 2011 à 2015, les Pépites du Salon, remises une semaine avant l’événement, récompensent huit créations :
+Catégorie Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salon_du_livre_et_de_la_presse_jeunesse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salon_du_livre_et_de_la_presse_jeunesse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix décernés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>De 2011 à 2015</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>De 2011 à 2015, les Pépites du Salon, remises une semaine avant l’événement, récompensent huit créations :
 Album (inédit et de création francophone) (anciennement Prix Baobab)
 BD / Manga (à partir de 10 ans)
 Documentaire (création francophone, niveau collège)
@@ -567,9 +652,47 @@
 Livre d’Art (création francophone)
 Création numérique (création francophone)
 Adaptation cinéma d’animation long métrage ou série
-Livre OVNI / coup de cœur de l'équipe du Salon (création francophone)
-Lauréats
-2011[8]
+Livre OVNI / coup de cœur de l'équipe du Salon (création francophone)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Salon_du_livre_et_de_la_presse_jeunesse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salon_du_livre_et_de_la_presse_jeunesse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix décernés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>De 2011 à 2015</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2011
 Pépite de l’album : Le roi des oiseaux de Gwendal Le Bec (Albin Michel jeunesse)
 Pépite du Premier Album : Mäko de Julien Béziat (Pastel)
 Pépite du documentaire : Enfants de tous les temps, de tous les mondes sous la direction de Jérôme Baschet (Gallimard Jeunesse / Giboulées)
@@ -580,7 +703,7 @@
 Catégorie "courts et moyens métrages" : L'Homme en colère réalisé par Anita Killi, Trollfilm AS,(Cappelen Verlag)
 Catégorie "séries télévisées" : Nini Patalo réalisé par Boris Guilloteau, écrit par Lisa Mandel et Laurent Sarfati, studios Je suis bien content, d'après l'œuvre de Lisa Mandel parue aux éditions Glénat
 Pépite du livre OVNI / coup de cœur de l’équipe du Salon : Le Haret québécois d’Anna Boulanger (Attila)
-2012[8]
+2012
 Pépite de l’album : Madame le Lapin Blanc de Gilles Bachelet (Seuil jeunesse)
 Pépite du documentaire : L’Art face à l’histoire de Nicolas Martin, Eloi Rousseau (Éditions Palette)
 Pépite du roman ado européen : Doglands de Tim Willocks, traduction Benjamin Legrand (Syros) et La Drôle de vie de Bibow Bradley de Axl Cendres (Éditions Sarbacane)
@@ -589,7 +712,7 @@
 Pépite de l’adaptation cinéma d’animation long métrage ou série : Le Jour des corneilles, réalisation Jean-Christophe Dessaint, scénario Amandine Taffin, production Finalement, Mélusine Production, Max Films, Walking The Dog, The Big Farm, distribution Gebeka Films, d'après le roman Le Jour des corneilles de Jean-François Beauchemin (Les Allusifs, 2004)
 Pépite du livre OVNI / coup de cœur de l’équipe du Salon : Dictionnaire fou du corps de Katy Couprie (Éditions Thierry Magnier)
 Pépite BD/manga : Choisis quelque chose mais dépêche-toi ! de Nadia Budde, traduction Vincent Haubtmann (L’Agrume)
-2013[9]
+2013
 La Pépite de l’album : L’Odyssée d’Outis de Jean Lecointre, (Thierry Magnier)
 Pépite du Livre OVNI : Romance de Blexbolex, (Albin Michel Jeunesse)
 La Pépite de la Bande dessinée/Manga : Lastman Balak, ill. Michaël Sanlaville, Bastien Vivès, (KSTR)
@@ -598,7 +721,7 @@
 La Pépite du Documentaire : Israël Palestine, une terre pour deux de Gérard Dhôtel et illustration Arno, (Actes Sud junior)
 La Pépite de la Création Numérique:  Anne Frank au pays du manga d’Alain Lewkowicz, Vincent Bourgeau, Samuel Pott et Marc Sainsauve, (Arte)
 La Pépite de l’Adaptation Cinématographique : Aya de Yopougon, réalisation Marguerite Abouet et Clément Oubrerie, scénario Marguerite Abouet, production Autochenille Production et Banjo Studio, distribution UGC Distribution. D’après la bande dessinée Aya de Yopougon vol. 1 et 2, Marguerite Abouet, ill. Clément Oubrerie, (Gallimard)
-2014[10]
+2014
 La Pépite de l’album : La Vie rêvée de Michel Galvin (Le Rouergue)
 Pépite du Roman européen : Le livre de Perle de Timothée de Fombelle (Gallimard jeunesse)
 La Pépite de la Bande dessinée/Manga – Ex-aequo : Hilda et le Chien noir de Luke Pearson (traduit de l’anglais par Basile Béguerie), (Casterman), et Pelote dans la fumée, vol. 1: L’Été / L’Automne de Miroslav Sekulic-Struja (traduit du croate par Aleksandar Grujicic), (Actes sud BD)
@@ -606,7 +729,7 @@
 Pépite du Livre d’art : Tous les Ponts sont dans la nature de Didier Cornille, (Hélium)
 Pépite Petite Enfance : La Boîte à images : Grrr ! Argh ! Areuh ! Miam ! d’Emmanuelle Houdart, (Thierry Magnier)
 Pépite de la Création numérique : Botanicula de Jaromír Plachỳ et Peter Stehlik, ( Amanita Design Studio)
-2015[11],[12]
+2015,
 La Pépite de l’album : Paloma et le vaste monde de Véronique Ovaldé et Jeanne Detallante, (Actes Sud Junior)
 La Pépite de la bande dessinée / manga : Le Jardin de Minuit, d’Édith, d’après Philippa Pearce (Soleil)
 La Pépite du roman 9-12 ans : Histoires du chien qui avait une ombre d’enfant d’Hervé Walbecq, (L’Ecole des loisirs)
@@ -619,9 +742,43 @@
 Les Sauvages de Mélanie Rutten, (MeMo)
 La Grande Histoire du monde arabe de François Reynaert et Laura Fanelli, (Bulles de savon)
 De cape et de mots de Flore Vesco, (Didier Jeunesse)
-Aussi loin que possible d’Éric Pessan, (l’école des loisirs)
-Depuis 2016
-Entre 2017 et 2018, il existe trois Pépites classées en 3 catégories[13] : 
+Aussi loin que possible d’Éric Pessan, (l’école des loisirs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Salon_du_livre_et_de_la_presse_jeunesse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salon_du_livre_et_de_la_presse_jeunesse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prix décernés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Depuis 2016</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Entre 2017 et 2018, il existe trois Pépites classées en 3 catégories : 
 Album (anciennement Prix Baobab)et Roman
 BD
 La pépite d'Or demeure la Pépite la plus importante. Celle-ci récompense un ouvrage, toutes catégories confondues.
@@ -633,9 +790,47 @@
 Fiction Junior
 Fiction Ado
 BD
-et la Pépite d'or, qui « vient sacrer le meilleur titre de l’année »[14].
-Lauréats
-2016[15]
+et la Pépite d'or, qui « vient sacrer le meilleur titre de l’année ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Salon_du_livre_et_de_la_presse_jeunesse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salon_du_livre_et_de_la_presse_jeunesse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prix décernés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Depuis 2016</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2016
 Pépite d’Or : Dans la forêt sombre et mystérieuse de Winshluss, (Gallimard BD)
 Pépites du Salon du Livre et de la presse Jeunesse en Seine-Saint-Denis :
 Pépite des Petits :  Björn, six histoires d’ours de Delphine Perret, (Les Fourmis Rouges)
@@ -645,41 +840,41 @@
 Pépites des Petits : Le Facteur de l’espace de Guillaume Perreault, (La Pastèque)
 Pépite des Moyens : Dans la forêt sombre et mystérieuse de Winshluss, (Gallimard BD)
 Pépite des Grands : Sauveur &amp; Fils t.1 de Marie-Aude Murail, (l’école des loisirs)
-2017[16],[17]
+2017,
 Pépite d'Or : Nos vacances de Blexbolex (TrapèZe / Albin Michel)
 Pépite du livre illustré : Colorama de Cruschiform (Gallimard – Giboulées)
 Pépite Roman : Des poings dans le ventre de Benjamin Desmares (Le Rouergue)
 Pépite BD : Momo de Jonathan Garnier et Rony Hotin (Casterman)
-2018[18]
+2018
 Pépite d'Or : Le Tracas de Blaise de Raphaële Frier et Julien Martinière (L'Atelier du poisson soluble)
 Pépite du livre illustré : Duel au soleil de Manuel Marsol (L'Agrume)
 Pépite Roman : L'Enfant de poussière, texte de Patrick K. Dewdney, illustrations de Fanny Etienne-Artur (Au diable vauvert)
 Pépite BD : Un gentil orc sauvage de Théo Grosjean (Delcourt).
-2019[19],[20]
+2019,
 Pépite d'Or : Sans foi ni loi, de Marion Brunet (PKJ)
 Pépite du livre illustré : Midi pile, de Rébecca Dautremer (Sarbacane)
 Pépite de la Fiction ados : Le Dernier sur la plaine, de Nathalie Bernard (éditions Thierry Magnier)
 Pépite de la Fiction juniors : Akita et les grizzlys, de Caroline Solé, illustrations de Gaya Wisniewski (L’École des loisirs)
 Pépite de la Bande dessinée : Les Vermeilles, de Camille Jourdy (Actes Sud BD)
-2020[21]
+2020
 Pépite d'Or : ABC de la nature, de Bernadette Gervais (Éditions des Grandes personnes)
 Pépite du livre illustré : Le Caramel du Jurassique, de Roxane Lumeret (Albin Michel Jeunesse)
 Pépite de la Fiction ados : J’ai vu Sisyphe heureux, de Katerina Apostolopoulou (Éditions Bruno Doucey)
 Pépite de la Fiction juniors : Carmin Volume 1, Le garçon au pied-sabot, de Amélie Sarn (Seuil Jeunesse)
 Pépite de la Bande dessinée : Ama : Le Souffle des femmes, scénario de Franck Manguin, dessins de Cécile Becq (Sarbacane)
-2021[14]
+2021
 Pépite d'Or : Queen Kong, de Hélène Vignal (Éditions Thierry Magnier)
 Pépite du livre illustré : Esprit, es-tu là ?, de Dominique Ehrhard et Anne-Florence Lemasson (Les Grandes Personnes)
 Pépite de la Fiction ados : Polly, de Fabrice Melquiot et Isabelle Pralong (La Joie de lire)
 Pépite de la Fiction juniors : Les Filles montent pas si haut d’habitude, d’Alice Butaud et François Ravard (Gallimard Jeunesse)
 Pépite de la Bande dessinée : Nowhere Girl de Magali Le Huche (Dargaud)
-2022[22]
+2022
 Pépite d'Or : Hekla et Laki, de Marine Schneider (Albin Michel Jeunesse)
 Pépite du livre illustré : Règlobus, de Pierre Alexis (La Partie)
 Pépite de la Fiction ados : Grand Passage, de Stéphanie Leclerc (Syros)
 Pépite de la Fiction juniors : Maldoror – Tome 1 : Les Enfants de la Légende, de Philippe Lechermeier (Flammarion Jeunesse)
 Pépite de la Bande dessinée : Furieuse, scénario de Geoffroy Monde, dessins de Mathieu Burniat (Dargaud)
-2023[23],[24]
+2023,
 Pépite d'Or : Nous traverserons des orages, d'Anne-Laure Bondoux (Gallimard Jeunesse)
 Pépite du livre illustré : Des papillons dans la nuit, d'Olivier Ka et Christophe Alline (Les Grandes Personnes)
 Pépite de la Fiction ados : Oxcean, de Nicolas Michel (Talents Hauts)
@@ -688,72 +883,76 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Salon_du_livre_et_de_la_presse_jeunesse</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Salon_du_livre_et_de_la_presse_jeunesse</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>À l'étranger</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Europe, l'organisation de la chaîne du livre est très hétérogène en fonction des États membres. Certains pays considèrent que la littérature pour la jeunesse a sa place à côté de la littérature pour adultes, contrairement à d'autres qui préfèrent investir dans d'autres domaines qu'ils jugent plus importants[25].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, l'organisation de la chaîne du livre est très hétérogène en fonction des États membres. Certains pays considèrent que la littérature pour la jeunesse a sa place à côté de la littérature pour adultes, contrairement à d'autres qui préfèrent investir dans d'autres domaines qu'ils jugent plus importants.
 En Suède, la littérature est considérée comme une matière culturelle dont il est primordial d'offrir l'accès à tous. En dépit des restrictions budgétaires, le ministère de la culture offre une aide financière aux auteurs, traducteurs et illustrateurs afin que beaucoup d'entre eux puissent vivre de leur plume. En 1996, une loi est votée  pour permettre à chaque commune d'avoir une bibliothèque. De plus, les lecteurs se voient accorder des prêts gratuitement.
-L'Italie, quant à elle, a créé en 2003 une école destinée aux futurs libraires nommée l'Academia Drosselmeier[26].
+L'Italie, quant à elle, a créé en 2003 une école destinée aux futurs libraires nommée l'Academia Drosselmeier.
 En Grande-Bretagne, l'Etat préconise d'utiliser la littérature de jeunesse à l'école mais n'encourage pas la littérature plaisir.
 En Allemagne, la culture demeure primordiale. Ainsi, la littérature est un domaine culturel qui attire toute l'attention de ce pays. Après la Seconde Guerre mondiale, de nombreuses  œuvres étrangères ont été traduites en allemand afin de permettre aux lecteurs de forger davantage leur culture.
-En Belgique, l'Etat n'a pas de politique de soutien du livre. Ce rôle est rempli en fonction des communautés. En Wallonie, les auteurs de livres de jeunesse ne reçoivent pas d'aide, contrairement au secteur pour adultes. La lecture à l'école n'est pas n'est pas un sujet estimé important et les professeurs ne sont pas formés pour cela. La Flandre, au contraire, est très active dans le domaine de la promotion de la lecture[27].
+En Belgique, l'Etat n'a pas de politique de soutien du livre. Ce rôle est rempli en fonction des communautés. En Wallonie, les auteurs de livres de jeunesse ne reçoivent pas d'aide, contrairement au secteur pour adultes. La lecture à l'école n'est pas n'est pas un sujet estimé important et les professeurs ne sont pas formés pour cela. La Flandre, au contraire, est très active dans le domaine de la promotion de la lecture.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Salon_du_livre_et_de_la_presse_jeunesse</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Salon_du_livre_et_de_la_presse_jeunesse</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Chiffres clés[28]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Salon du livre de Montreuil est le plus grand événement littéraire français.
 Il se déroule en moyenne sur une période de six jours (généralement du mercredi au lundi).
 En termes de chiffres, ce sont près de 162 000 visiteurs par an, 30 000 enfants inscrits et encadrés, 280 artistes européens invités, 2 000 auteurs et illustrateurs et 27 000 professionnels et étudiants, qui foulent l'entrée du SLPJ.
-Ce qui fait plus de 400[29] exposants qui sont présents chaque année pour faire vivre cette presque semaine dédiée à la littérature jeunesse et young-adult.
+Ce qui fait plus de 400 exposants qui sont présents chaque année pour faire vivre cette presque semaine dédiée à la littérature jeunesse et young-adult.
 </t>
         </is>
       </c>
